--- a/data/regression_name_list179.xlsx
+++ b/data/regression_name_list179.xlsx
@@ -455,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
